--- a/Bases_de_Dados_(2006-2021)/Portugal LigaPro_20122013.xlsx
+++ b/Bases_de_Dados_(2006-2021)/Portugal LigaPro_20122013.xlsx
@@ -804,7 +804,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -19993,7 +19993,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -25007,7 +25007,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -27182,7 +27182,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -31765,7 +31765,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -35689,7 +35689,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -38300,7 +38300,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -39177,7 +39177,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -41570,7 +41570,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -43973,7 +43973,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I200" t="n">
@@ -46148,7 +46148,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -48551,7 +48551,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -50944,7 +50944,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -51821,7 +51821,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I236" t="n">
@@ -55304,7 +55304,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -56399,7 +56399,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -58138,7 +58138,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -60977,7 +60977,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -63152,7 +63152,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -67294,7 +67294,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -68825,7 +68825,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I314" t="n">
@@ -71436,7 +71436,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -72531,7 +72531,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -75796,7 +75796,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -78417,7 +78417,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I358" t="n">
@@ -80374,7 +80374,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -83867,7 +83867,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I383" t="n">
@@ -88881,7 +88881,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I406" t="n">
@@ -89094,7 +89094,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -89966,7 +89966,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -93677,7 +93677,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I428" t="n">
@@ -96288,7 +96288,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -97601,7 +97601,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I446" t="n">
@@ -99122,7 +99122,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
